--- a/daty.xlsx
+++ b/daty.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>day</t>
   </si>
@@ -35,14 +35,17 @@
   <si>
     <t>full</t>
   </si>
+  <si>
+    <t>id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="d\-m\-yy\ h:mm;@"/>
-    <numFmt numFmtId="168" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="d\-m\-yy\ h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -75,9 +78,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,7 +374,7 @@
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -381,8 +384,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43449</v>
       </c>
@@ -392,8 +398,11 @@
       <c r="C2" s="1">
         <v>43449.994444444441</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43449</v>
       </c>
@@ -403,8 +412,11 @@
       <c r="C3" s="1">
         <v>43449.973611111112</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43449</v>
       </c>
@@ -414,8 +426,11 @@
       <c r="C4" s="1">
         <v>43449.973611111112</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43449</v>
       </c>
@@ -425,8 +440,11 @@
       <c r="C5" s="1">
         <v>43449.970833333333</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43449</v>
       </c>
@@ -436,8 +454,11 @@
       <c r="C6" s="1">
         <v>43449.947916666664</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43449</v>
       </c>
@@ -447,8 +468,11 @@
       <c r="C7" s="1">
         <v>43449.879166666666</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43449</v>
       </c>
@@ -458,8 +482,11 @@
       <c r="C8" s="1">
         <v>43449.855555555558</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43449</v>
       </c>
@@ -469,8 +496,11 @@
       <c r="C9" s="1">
         <v>43449.841666666667</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43449</v>
       </c>
@@ -480,8 +510,11 @@
       <c r="C10" s="1">
         <v>43449.814583333333</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43449</v>
       </c>
@@ -491,8 +524,11 @@
       <c r="C11" s="1">
         <v>43449.810416666667</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43449</v>
       </c>
@@ -502,8 +538,11 @@
       <c r="C12" s="1">
         <v>43449.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43449</v>
       </c>
@@ -513,8 +552,11 @@
       <c r="C13" s="1">
         <v>43449.740277777775</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43449</v>
       </c>
@@ -524,8 +566,11 @@
       <c r="C14" s="1">
         <v>43449.720138888886</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43449</v>
       </c>
@@ -535,8 +580,11 @@
       <c r="C15" s="1">
         <v>43449.670138888891</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43449</v>
       </c>
@@ -546,8 +594,11 @@
       <c r="C16" s="1">
         <v>43449.644444444442</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43449</v>
       </c>
@@ -557,8 +608,11 @@
       <c r="C17" s="1">
         <v>43449.484722222223</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43449</v>
       </c>
@@ -568,8 +622,11 @@
       <c r="C18" s="1">
         <v>43449.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43449</v>
       </c>
@@ -579,8 +636,11 @@
       <c r="C19" s="1">
         <v>43449.265972222223</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43449</v>
       </c>
@@ -590,8 +650,11 @@
       <c r="C20" s="1">
         <v>43449.06527777778</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43449</v>
       </c>
@@ -601,8 +664,11 @@
       <c r="C21" s="1">
         <v>43449.05972222222</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43448</v>
       </c>
@@ -612,8 +678,11 @@
       <c r="C22" s="1">
         <v>43448.000694444447</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43448</v>
       </c>
@@ -623,8 +692,11 @@
       <c r="C23" s="1">
         <v>43448.943749999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43448</v>
       </c>
@@ -634,8 +706,11 @@
       <c r="C24" s="1">
         <v>43448.89166666667</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43448</v>
       </c>
@@ -645,8 +720,11 @@
       <c r="C25" s="1">
         <v>43448.833333333336</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43448</v>
       </c>
@@ -656,8 +734,11 @@
       <c r="C26" s="1">
         <v>43448.763888888891</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43448</v>
       </c>
@@ -667,8 +748,11 @@
       <c r="C27" s="1">
         <v>43448.713888888888</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43448</v>
       </c>
@@ -678,8 +762,11 @@
       <c r="C28" s="1">
         <v>43448.644444444442</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43448</v>
       </c>
@@ -689,8 +776,11 @@
       <c r="C29" s="1">
         <v>43448.611805555556</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43448</v>
       </c>
@@ -700,8 +790,11 @@
       <c r="C30" s="1">
         <v>43448.59097222222</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43447</v>
       </c>
@@ -711,8 +804,11 @@
       <c r="C31" s="1">
         <v>43447.443055555559</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43447</v>
       </c>
@@ -722,8 +818,11 @@
       <c r="C32" s="1">
         <v>43447.920138888891</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43447</v>
       </c>
@@ -733,8 +832,11 @@
       <c r="C33" s="1">
         <v>43447.863888888889</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43447</v>
       </c>
@@ -744,8 +846,11 @@
       <c r="C34" s="1">
         <v>43447.829861111109</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43447</v>
       </c>
@@ -755,8 +860,11 @@
       <c r="C35" s="1">
         <v>43447.732638888891</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43447</v>
       </c>
@@ -766,8 +874,11 @@
       <c r="C36" s="1">
         <v>43447.544444444444</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43447</v>
       </c>
@@ -777,8 +888,11 @@
       <c r="C37" s="1">
         <v>43447.451388888891</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43446</v>
       </c>
@@ -788,8 +902,11 @@
       <c r="C38" s="1">
         <v>43446.20416666667</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43446</v>
       </c>
@@ -799,8 +916,11 @@
       <c r="C39" s="1">
         <v>43446.95</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43446</v>
       </c>
@@ -810,8 +930,11 @@
       <c r="C40" s="1">
         <v>43446.588194444441</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43446</v>
       </c>
@@ -821,8 +944,11 @@
       <c r="C41" s="1">
         <v>43446.568749999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43445</v>
       </c>
@@ -832,8 +958,11 @@
       <c r="C42" s="1">
         <v>43445.441666666666</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43445</v>
       </c>
@@ -843,8 +972,11 @@
       <c r="C43" s="1">
         <v>43445.697916666664</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43445</v>
       </c>
@@ -854,8 +986,11 @@
       <c r="C44" s="1">
         <v>43445.5625</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43443</v>
       </c>
@@ -865,8 +1000,11 @@
       <c r="C45" s="1">
         <v>43443.561111111114</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43441</v>
       </c>
@@ -876,8 +1014,11 @@
       <c r="C46" s="1">
         <v>43441.696527777778</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43438</v>
       </c>
@@ -887,8 +1028,11 @@
       <c r="C47" s="1">
         <v>43438.45</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43437</v>
       </c>
@@ -898,8 +1042,11 @@
       <c r="C48" s="1">
         <v>43437.240277777775</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43437</v>
       </c>
@@ -909,8 +1056,11 @@
       <c r="C49" s="1">
         <v>43437.864583333336</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43435</v>
       </c>
@@ -920,8 +1070,11 @@
       <c r="C50" s="1">
         <v>43435.694444444445</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43434</v>
       </c>
@@ -931,8 +1084,11 @@
       <c r="C51" s="1">
         <v>43434.533333333333</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43413</v>
       </c>
@@ -941,6 +1097,9 @@
       </c>
       <c r="C52" s="1">
         <v>43413.474999999999</v>
+      </c>
+      <c r="D52">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/daty.xlsx
+++ b/daty.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7da5c97e9815dc19/python/time/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swidrak\Documents\PythonScripts\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A3E1FD-96F3-46B1-815F-34C8504B4B86}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="10575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>day</t>
   </si>
@@ -35,13 +42,17 @@
   <si>
     <t>id</t>
   </si>
+  <si>
+    <t>month</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\-m\-yy\ h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -72,9 +83,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,444 +367,758 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>43413.474999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="2">
+        <v>43405</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>43434.533333333333</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="2">
+        <v>43405</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>43435.694444444445</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>43437.240277777775</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>43437.864583333336</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>43438.45</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>43441.696527777778</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>43443.561111111114</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>43445.441666666666</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>43445.5625</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>43445.697916666664</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>43446.20416666667</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>43446.568749999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>43446.588194444441</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>43446.95</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>43447.443055555559</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>43447.451388888891</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>43447.544444444444</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>43447.732638888891</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>43447.829861111109</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>43447.863888888889</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>43447.920138888891</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>43448.000694444447</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>43448.59097222222</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>43448.611805555556</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>43448.644444444442</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>43448.713888888888</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>43448.763888888891</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>43448.833333333336</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>43448.89166666667</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>43448.943749999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>43449.05972222222</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>43449.06527777778</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>43449.265972222223</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>43449.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>43449.484722222223</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>43449.644444444442</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>43449.670138888891</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>43449.720138888886</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>43449.740277777775</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>43449.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>43449.810416666667</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>43449.814583333333</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>43449.841666666667</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>43449.855555555558</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>43449.879166666666</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>43449.947916666664</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>43449.970833333333</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>43449.973611111112</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>43449.973611111112</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1">
         <v>43449.994444444441</v>
       </c>
+      <c r="C52" s="2">
+        <v>43435</v>
+      </c>
+      <c r="D52">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B52">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B52">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/daty.xlsx
+++ b/daty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swidrak\Documents\PythonScripts\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A3E1FD-96F3-46B1-815F-34C8504B4B86}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6981C7-5534-4B96-8917-BD64BFC85BC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>day</t>
   </si>
@@ -45,6 +45,9 @@
   <si>
     <t>month</t>
   </si>
+  <si>
+    <t>short</t>
+  </si>
 </sst>
 </file>
 
@@ -52,7 +55,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\-m\-yy\ h:mm;@"/>
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="d\-m;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -371,16 +374,16 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="5" max="5" width="21" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -393,8 +396,11 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -407,8 +413,11 @@
       <c r="D2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="3">
+        <v>43778.474999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -421,8 +430,11 @@
       <c r="D3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <v>43799.533333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -435,8 +447,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3">
+        <v>43800.694444444445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -449,8 +464,11 @@
       <c r="D5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <v>43802.240277777775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -463,8 +481,11 @@
       <c r="D6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3">
+        <v>43802.864583333336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -477,8 +498,11 @@
       <c r="D7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3">
+        <v>43803.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -491,8 +515,11 @@
       <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="3">
+        <v>43806.696527777778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -505,8 +532,11 @@
       <c r="D9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="3">
+        <v>43808.561111111114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -519,8 +549,11 @@
       <c r="D10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="3">
+        <v>43810.441666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -533,8 +566,11 @@
       <c r="D11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="3">
+        <v>43810.5625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -547,8 +583,11 @@
       <c r="D12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="3">
+        <v>43810.697916666664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -561,8 +600,11 @@
       <c r="D13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="3">
+        <v>43811.20416666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -575,8 +617,11 @@
       <c r="D14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="3">
+        <v>43811.568749999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -589,8 +634,11 @@
       <c r="D15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="3">
+        <v>43811.588194444441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -603,8 +651,11 @@
       <c r="D16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="3">
+        <v>43446.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -617,8 +668,11 @@
       <c r="D17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="3">
+        <v>43447.443055555559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -631,8 +685,11 @@
       <c r="D18">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="3">
+        <v>43447.451388888891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -645,8 +702,11 @@
       <c r="D19">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="3">
+        <v>43447.544444444444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -659,8 +719,11 @@
       <c r="D20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="3">
+        <v>43447.732638888891</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -673,8 +736,11 @@
       <c r="D21">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="3">
+        <v>43447.829861111109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -687,8 +753,11 @@
       <c r="D22">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="3">
+        <v>43447.863888888889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -701,8 +770,11 @@
       <c r="D23">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="3">
+        <v>43447.920138888891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -715,8 +787,11 @@
       <c r="D24">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="3">
+        <v>43448.000694444447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -729,8 +804,11 @@
       <c r="D25">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="3">
+        <v>43448.59097222222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -743,8 +821,11 @@
       <c r="D26">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="3">
+        <v>43448.611805555556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -757,8 +838,11 @@
       <c r="D27">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="3">
+        <v>43448.644444444442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -771,8 +855,11 @@
       <c r="D28">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="3">
+        <v>43448.713888888888</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -785,8 +872,11 @@
       <c r="D29">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="3">
+        <v>43448.763888888891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -799,8 +889,11 @@
       <c r="D30">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="3">
+        <v>43448.833333333336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -813,8 +906,11 @@
       <c r="D31">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="3">
+        <v>43448.89166666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -827,8 +923,11 @@
       <c r="D32">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="3">
+        <v>43448.943749999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -841,8 +940,11 @@
       <c r="D33">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="3">
+        <v>43449.05972222222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -855,8 +957,11 @@
       <c r="D34">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="3">
+        <v>43449.06527777778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -869,8 +974,11 @@
       <c r="D35">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="3">
+        <v>43449.265972222223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -883,8 +991,11 @@
       <c r="D36">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="3">
+        <v>43449.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -897,8 +1008,11 @@
       <c r="D37">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="3">
+        <v>43449.484722222223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -911,8 +1025,11 @@
       <c r="D38">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="3">
+        <v>43449.644444444442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -925,8 +1042,11 @@
       <c r="D39">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="3">
+        <v>43449.670138888891</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -939,8 +1059,11 @@
       <c r="D40">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="3">
+        <v>43449.720138888886</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -953,8 +1076,11 @@
       <c r="D41">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="3">
+        <v>43449.740277777775</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -967,8 +1093,11 @@
       <c r="D42">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="3">
+        <v>43449.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -981,8 +1110,11 @@
       <c r="D43">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="3">
+        <v>43449.810416666667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -995,8 +1127,11 @@
       <c r="D44">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="3">
+        <v>43449.814583333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1009,8 +1144,11 @@
       <c r="D45">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="3">
+        <v>43449.841666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1023,8 +1161,11 @@
       <c r="D46">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="3">
+        <v>43449.855555555558</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1037,8 +1178,11 @@
       <c r="D47">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="3">
+        <v>43449.879166666666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1051,8 +1195,11 @@
       <c r="D48">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="3">
+        <v>43449.947916666664</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1065,8 +1212,11 @@
       <c r="D49">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="3">
+        <v>43449.970833333333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1079,8 +1229,11 @@
       <c r="D50">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="3">
+        <v>43449.973611111112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1093,8 +1246,11 @@
       <c r="D51">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="3">
+        <v>43449.973611111112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1106,6 +1262,9 @@
       </c>
       <c r="D52">
         <v>15</v>
+      </c>
+      <c r="E52" s="3">
+        <v>43449.994444444441</v>
       </c>
     </row>
   </sheetData>

--- a/daty.xlsx
+++ b/daty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swidrak\Documents\PythonScripts\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6981C7-5534-4B96-8917-BD64BFC85BC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D9A072-F96C-40CA-93E6-CEE6CBAD26E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>day</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>short</t>
+  </si>
+  <si>
+    <t>daysleft</t>
+  </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -86,11 +95,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,19 +382,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="5" max="5" width="21" style="3" customWidth="1"/>
+    <col min="2" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -391,879 +403,1241 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>43413.474999999999</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="4">
+        <v>43419.999305555553</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D2" s="5">
+        <f>C2-B2</f>
+        <v>30</v>
+      </c>
+      <c r="E2" s="2">
         <v>43405</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>9</v>
       </c>
-      <c r="E2" s="3">
+      <c r="G2" s="3">
         <v>43778.474999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>43434.533333333333</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D52" si="0">C3-B3</f>
+        <v>15.465972222220444</v>
+      </c>
+      <c r="E3" s="2">
         <v>43405</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>30</v>
       </c>
-      <c r="E3" s="3">
+      <c r="G3" s="3">
         <v>43799.533333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>43435.694444444445</v>
       </c>
-      <c r="C4" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>14.304861111108039</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="G4" s="3">
         <v>43800.694444444445</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>43437.240277777775</v>
       </c>
-      <c r="C5" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>12.759027777778101</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="E5" s="3">
+      <c r="G5" s="3">
         <v>43802.240277777775</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>43437.864583333336</v>
       </c>
-      <c r="C6" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>12.134722222217533</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="E6" s="3">
+      <c r="G6" s="3">
         <v>43802.864583333336</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>43438.45</v>
       </c>
-      <c r="C7" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>11.549305555556202</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="E7" s="3">
+      <c r="G7" s="3">
         <v>43803.45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>43441.696527777778</v>
       </c>
-      <c r="C8" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>8.3027777777751908</v>
+      </c>
+      <c r="E8" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>43806.696527777778</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>43443.561111111114</v>
       </c>
-      <c r="C9" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>6.4381944444394321</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F9">
         <v>9</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>43808.561111111114</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>43445.441666666666</v>
       </c>
-      <c r="C10" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5576388888875954</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F10">
         <v>11</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>43810.441666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>43445.5625</v>
       </c>
-      <c r="C11" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>4.4368055555532919</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F11">
         <v>11</v>
       </c>
-      <c r="E11" s="3">
+      <c r="G11" s="3">
         <v>43810.5625</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>43445.697916666664</v>
       </c>
-      <c r="C12" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>4.3013888888890506</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F12">
         <v>11</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>43810.697916666664</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>43446.20416666667</v>
       </c>
-      <c r="C13" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>3.7951388888832298</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F13">
         <v>12</v>
       </c>
-      <c r="E13" s="3">
+      <c r="G13" s="3">
         <v>43811.20416666667</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>43446.568749999999</v>
       </c>
-      <c r="C14" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>3.4305555555547471</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F14">
         <v>12</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>43811.568749999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>43446.588194444441</v>
       </c>
-      <c r="C15" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>3.4111111111124046</v>
+      </c>
+      <c r="E15" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F15">
         <v>12</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>43811.588194444441</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>43446.95</v>
       </c>
-      <c r="C16" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>3.0493055555562023</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F16">
         <v>12</v>
       </c>
-      <c r="E16" s="3">
+      <c r="G16" s="3">
         <v>43446.95</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <v>43447.443055555559</v>
       </c>
-      <c r="C17" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5562499999941792</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F17">
         <v>13</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>43447.443055555559</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <v>43447.451388888891</v>
       </c>
-      <c r="C18" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5479166666627862</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F18">
         <v>13</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>43447.451388888891</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <v>43447.544444444444</v>
       </c>
-      <c r="C19" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>2.4548611111094942</v>
+      </c>
+      <c r="E19" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F19">
         <v>13</v>
       </c>
-      <c r="E19" s="3">
+      <c r="G19" s="3">
         <v>43447.544444444444</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="4">
         <v>43447.732638888891</v>
       </c>
-      <c r="C20" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>2.2666666666627862</v>
+      </c>
+      <c r="E20" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F20">
         <v>13</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>43447.732638888891</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <v>43447.829861111109</v>
       </c>
-      <c r="C21" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>2.1694444444437977</v>
+      </c>
+      <c r="E21" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F21">
         <v>13</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>43447.829861111109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="4">
         <v>43447.863888888889</v>
       </c>
-      <c r="C22" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>2.1354166666642413</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F22">
         <v>13</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>43447.863888888889</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="4">
         <v>43447.920138888891</v>
       </c>
-      <c r="C23" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0791666666627862</v>
+      </c>
+      <c r="E23" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F23">
         <v>13</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>43447.920138888891</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="4">
         <v>43448.000694444447</v>
       </c>
-      <c r="C24" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>1.9986111111065838</v>
+      </c>
+      <c r="E24" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F24">
         <v>14</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>43448.000694444447</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <v>43448.59097222222</v>
       </c>
-      <c r="C25" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4083333333328483</v>
+      </c>
+      <c r="E25" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F25">
         <v>14</v>
       </c>
-      <c r="E25" s="3">
+      <c r="G25" s="3">
         <v>43448.59097222222</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="4">
         <v>43448.611805555556</v>
       </c>
-      <c r="C26" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3874999999970896</v>
+      </c>
+      <c r="E26" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F26">
         <v>14</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>43448.611805555556</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="4">
         <v>43448.644444444442</v>
       </c>
-      <c r="C27" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3548611111109494</v>
+      </c>
+      <c r="E27" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F27">
         <v>14</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>43448.644444444442</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="4">
         <v>43448.713888888888</v>
       </c>
-      <c r="C28" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2854166666656965</v>
+      </c>
+      <c r="E28" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F28">
         <v>14</v>
       </c>
-      <c r="E28" s="3">
+      <c r="G28" s="3">
         <v>43448.713888888888</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="4">
         <v>43448.763888888891</v>
       </c>
-      <c r="C29" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2354166666627862</v>
+      </c>
+      <c r="E29" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F29">
         <v>14</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>43448.763888888891</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="4">
         <v>43448.833333333336</v>
       </c>
-      <c r="C30" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1659722222175333</v>
+      </c>
+      <c r="E30" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F30">
         <v>14</v>
       </c>
-      <c r="E30" s="3">
+      <c r="G30" s="3">
         <v>43448.833333333336</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="4">
         <v>43448.89166666667</v>
       </c>
-      <c r="C31" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1076388888832298</v>
+      </c>
+      <c r="E31" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F31">
         <v>14</v>
       </c>
-      <c r="E31" s="3">
+      <c r="G31" s="3">
         <v>43448.89166666667</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="4">
         <v>43448.943749999999</v>
       </c>
-      <c r="C32" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0555555555547471</v>
+      </c>
+      <c r="E32" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F32">
         <v>14</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>43448.943749999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="4">
         <v>43449.05972222222</v>
       </c>
-      <c r="C33" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D33">
-        <v>15</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="C33" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.93958333333284827</v>
+      </c>
+      <c r="E33" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F33">
+        <v>15</v>
+      </c>
+      <c r="G33" s="3">
         <v>43449.05972222222</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="4">
         <v>43449.06527777778</v>
       </c>
-      <c r="C34" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D34">
-        <v>15</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="C34" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>0.93402777777373558</v>
+      </c>
+      <c r="E34" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="G34" s="3">
         <v>43449.06527777778</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="4">
         <v>43449.265972222223</v>
       </c>
-      <c r="C35" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D35">
-        <v>15</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="C35" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="0"/>
+        <v>0.73333333332993789</v>
+      </c>
+      <c r="E35" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F35">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3">
         <v>43449.265972222223</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="4">
         <v>43449.4</v>
       </c>
-      <c r="C36" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D36">
-        <v>15</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="C36" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="0"/>
+        <v>0.59930555555183673</v>
+      </c>
+      <c r="E36" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F36">
+        <v>15</v>
+      </c>
+      <c r="G36" s="3">
         <v>43449.4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="4">
         <v>43449.484722222223</v>
       </c>
-      <c r="C37" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D37">
-        <v>15</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="C37" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="0"/>
+        <v>0.51458333332993789</v>
+      </c>
+      <c r="E37" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F37">
+        <v>15</v>
+      </c>
+      <c r="G37" s="3">
         <v>43449.484722222223</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="4">
         <v>43449.644444444442</v>
       </c>
-      <c r="C38" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D38">
-        <v>15</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="C38" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="0"/>
+        <v>0.35486111111094942</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F38">
+        <v>15</v>
+      </c>
+      <c r="G38" s="3">
         <v>43449.644444444442</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="4">
         <v>43449.670138888891</v>
       </c>
-      <c r="C39" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D39">
-        <v>15</v>
-      </c>
-      <c r="E39" s="3">
+      <c r="C39" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="0"/>
+        <v>0.32916666666278616</v>
+      </c>
+      <c r="E39" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F39">
+        <v>15</v>
+      </c>
+      <c r="G39" s="3">
         <v>43449.670138888891</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="4">
         <v>43449.720138888886</v>
       </c>
-      <c r="C40" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D40">
-        <v>15</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="C40" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27916666666715173</v>
+      </c>
+      <c r="E40" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F40">
+        <v>15</v>
+      </c>
+      <c r="G40" s="3">
         <v>43449.720138888886</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="4">
         <v>43449.740277777775</v>
       </c>
-      <c r="C41" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D41">
-        <v>15</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="C41" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25902777777810115</v>
+      </c>
+      <c r="E41" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F41">
+        <v>15</v>
+      </c>
+      <c r="G41" s="3">
         <v>43449.740277777775</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="4">
         <v>43449.8</v>
       </c>
-      <c r="C42" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D42">
-        <v>15</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="C42" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="0"/>
+        <v>0.19930555555038154</v>
+      </c>
+      <c r="E42" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F42">
+        <v>15</v>
+      </c>
+      <c r="G42" s="3">
         <v>43449.8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="4">
         <v>43449.810416666667</v>
       </c>
-      <c r="C43" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D43">
-        <v>15</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="C43" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="0"/>
+        <v>0.18888888888614019</v>
+      </c>
+      <c r="E43" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F43">
+        <v>15</v>
+      </c>
+      <c r="G43" s="3">
         <v>43449.810416666667</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="4">
         <v>43449.814583333333</v>
       </c>
-      <c r="C44" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D44">
-        <v>15</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="C44" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="0"/>
+        <v>0.18472222222044365</v>
+      </c>
+      <c r="E44" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F44">
+        <v>15</v>
+      </c>
+      <c r="G44" s="3">
         <v>43449.814583333333</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="4">
         <v>43449.841666666667</v>
       </c>
-      <c r="C45" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D45">
-        <v>15</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="C45" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15763888888614019</v>
+      </c>
+      <c r="E45" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F45">
+        <v>15</v>
+      </c>
+      <c r="G45" s="3">
         <v>43449.841666666667</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="4">
         <v>43449.855555555558</v>
       </c>
-      <c r="C46" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D46">
-        <v>15</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="C46" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="0"/>
+        <v>0.14374999999563443</v>
+      </c>
+      <c r="E46" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F46">
+        <v>15</v>
+      </c>
+      <c r="G46" s="3">
         <v>43449.855555555558</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="4">
         <v>43449.879166666666</v>
       </c>
-      <c r="C47" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D47">
-        <v>15</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="C47" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="0"/>
+        <v>0.12013888888759539</v>
+      </c>
+      <c r="E47" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F47">
+        <v>15</v>
+      </c>
+      <c r="G47" s="3">
         <v>43449.879166666666</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="4">
         <v>43449.947916666664</v>
       </c>
-      <c r="C48" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D48">
-        <v>15</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="C48" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="0"/>
+        <v>5.1388888889050577E-2</v>
+      </c>
+      <c r="E48" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F48">
+        <v>15</v>
+      </c>
+      <c r="G48" s="3">
         <v>43449.947916666664</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="4">
         <v>43449.970833333333</v>
       </c>
-      <c r="C49" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D49">
-        <v>15</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="C49" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="0"/>
+        <v>2.8472222220443655E-2</v>
+      </c>
+      <c r="E49" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F49">
+        <v>15</v>
+      </c>
+      <c r="G49" s="3">
         <v>43449.970833333333</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="4">
         <v>43449.973611111112</v>
       </c>
-      <c r="C50" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D50">
-        <v>15</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="C50" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="0"/>
+        <v>2.569444444088731E-2</v>
+      </c>
+      <c r="E50" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F50">
+        <v>15</v>
+      </c>
+      <c r="G50" s="3">
         <v>43449.973611111112</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="4">
         <v>43449.973611111112</v>
       </c>
-      <c r="C51" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D51">
-        <v>15</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="C51" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="0"/>
+        <v>2.569444444088731E-2</v>
+      </c>
+      <c r="E51" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F51">
+        <v>15</v>
+      </c>
+      <c r="G51" s="3">
         <v>43449.973611111112</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="4">
         <v>43449.994444444441</v>
       </c>
-      <c r="C52" s="2">
-        <v>43435</v>
-      </c>
-      <c r="D52">
-        <v>15</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="C52" s="4">
+        <v>43449.999305555553</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="2">
+        <v>43435</v>
+      </c>
+      <c r="F52">
+        <v>15</v>
+      </c>
+      <c r="G52" s="3">
         <v>43449.994444444441</v>
       </c>
     </row>
